--- a/Student_new_file.xlsx
+++ b/Student_new_file.xlsx
@@ -181,10 +181,10 @@
     <t>no</t>
   </si>
   <si>
-    <t>student-mat.csv</t>
+    <t>student-mat 2.csv</t>
   </si>
   <si>
-    <t>student-por.csv</t>
+    <t>student-por 2.csv</t>
   </si>
 </sst>
 </file>
